--- a/run_entrance/test_suite/test_suite_wsjj02预审不通过.xlsx
+++ b/run_entrance/test_suite/test_suite_wsjj02预审不通过.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="2"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://10.45.67.194:9180/</t>
+    <t>http://10.45.67.194:9180/mainmanager.html</t>
   </si>
   <si>
     <t>测试用例序号</t>
@@ -363,16 +363,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +423,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -402,28 +479,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,64 +493,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,91 +528,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,85 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,6 +713,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -731,15 +740,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -751,39 +751,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,6 +772,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -813,6 +789,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -821,10 +821,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,133 +833,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1784,12 +1784,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://10.45.67.194:9180/mainmanager.html" tooltip="http://10.45.67.194:9180/mainmanager.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1800,7 +1803,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1918,7 +1921,7 @@
   <sheetPr/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
